--- a/data/pca/factorExposure/factorExposure_2012-11-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-11-30.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.0009321032005358745</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.002213785861059293</v>
+      </c>
+      <c r="C2">
+        <v>-0.03103304376811438</v>
+      </c>
+      <c r="D2">
+        <v>0.005185150449321002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.0003295414244303379</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006826984639069457</v>
+      </c>
+      <c r="C4">
+        <v>-0.08337486484136554</v>
+      </c>
+      <c r="D4">
+        <v>0.07553855466422507</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0005430183605442363</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01445448813068098</v>
+      </c>
+      <c r="C6">
+        <v>-0.1144982776676513</v>
+      </c>
+      <c r="D6">
+        <v>0.0339604744849042</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.001563072860914631</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004758046039690196</v>
+      </c>
+      <c r="C7">
+        <v>-0.05781848090968557</v>
+      </c>
+      <c r="D7">
+        <v>0.0310158377757607</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-9.621883975911892e-05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005447352207046977</v>
+      </c>
+      <c r="C8">
+        <v>-0.03729139230772673</v>
+      </c>
+      <c r="D8">
+        <v>0.04228965100449724</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.003623820680106347</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004777627157934832</v>
+      </c>
+      <c r="C9">
+        <v>-0.07068166117078849</v>
+      </c>
+      <c r="D9">
+        <v>0.07318292106870317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.002252885304991185</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005673222708875669</v>
+      </c>
+      <c r="C10">
+        <v>-0.05769281165138512</v>
+      </c>
+      <c r="D10">
+        <v>-0.196378161128065</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.002531939633885361</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005774462588134339</v>
+      </c>
+      <c r="C11">
+        <v>-0.07982136759388618</v>
+      </c>
+      <c r="D11">
+        <v>0.0602257190651555</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0001903977364939599</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.00417613100244512</v>
+      </c>
+      <c r="C12">
+        <v>-0.06420725876534143</v>
+      </c>
+      <c r="D12">
+        <v>0.04666670999757489</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.0008164256905209336</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008692552579853751</v>
+      </c>
+      <c r="C13">
+        <v>-0.0686475665373643</v>
+      </c>
+      <c r="D13">
+        <v>0.05725586606837035</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.001067277265850623</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001232127613206109</v>
+      </c>
+      <c r="C14">
+        <v>-0.04414489388787026</v>
+      </c>
+      <c r="D14">
+        <v>0.005922168953465238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.0005287090145744489</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005987224245766059</v>
+      </c>
+      <c r="C15">
+        <v>-0.04148380516512259</v>
+      </c>
+      <c r="D15">
+        <v>0.03112656799681488</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.0005991026630831486</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005091887783902223</v>
+      </c>
+      <c r="C16">
+        <v>-0.06456199411947562</v>
+      </c>
+      <c r="D16">
+        <v>0.05150914865971264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0001068283412744819</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008557814943151925</v>
+      </c>
+      <c r="C20">
+        <v>-0.06561427595427501</v>
+      </c>
+      <c r="D20">
+        <v>0.04266236559750852</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.005561961561910155</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009723048282082822</v>
+      </c>
+      <c r="C21">
+        <v>-0.02152466347861579</v>
+      </c>
+      <c r="D21">
+        <v>0.03894146590851719</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01677182932603895</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006313604248548297</v>
+      </c>
+      <c r="C22">
+        <v>-0.0940459957148886</v>
+      </c>
+      <c r="D22">
+        <v>0.117700988652724</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01711575901057606</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006138072532266745</v>
+      </c>
+      <c r="C23">
+        <v>-0.09486338935568933</v>
+      </c>
+      <c r="D23">
+        <v>0.1177227415015917</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.001526396988784893</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005571417641822241</v>
+      </c>
+      <c r="C24">
+        <v>-0.07699647524633134</v>
+      </c>
+      <c r="D24">
+        <v>0.06502341007893159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.004293334877804069</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.003082095360053076</v>
+      </c>
+      <c r="C25">
+        <v>-0.07808155336645445</v>
+      </c>
+      <c r="D25">
+        <v>0.06590716984383536</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.00372187543779426</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.00365342413292425</v>
+      </c>
+      <c r="C26">
+        <v>-0.04096630676249834</v>
+      </c>
+      <c r="D26">
+        <v>0.0217388839775475</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.004780353564881237</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0005814837538834075</v>
+      </c>
+      <c r="C28">
+        <v>-0.1072359850451404</v>
+      </c>
+      <c r="D28">
+        <v>-0.3203866344977036</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001497183048048931</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003053381431536579</v>
+      </c>
+      <c r="C29">
+        <v>-0.04986567229444954</v>
+      </c>
+      <c r="D29">
+        <v>0.008833733781512445</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.002745604465176736</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009971630470946265</v>
+      </c>
+      <c r="C30">
+        <v>-0.1418237074933523</v>
+      </c>
+      <c r="D30">
+        <v>0.1040259754203833</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0006450231954011204</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006258702546636103</v>
+      </c>
+      <c r="C31">
+        <v>-0.04456229304480688</v>
+      </c>
+      <c r="D31">
+        <v>0.02901205607893091</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.0006180590797559473</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004184224638735644</v>
+      </c>
+      <c r="C32">
+        <v>-0.03862882246106904</v>
+      </c>
+      <c r="D32">
+        <v>0.02339728163130037</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.001682560699979523</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008662195158846442</v>
+      </c>
+      <c r="C33">
+        <v>-0.08688905052660656</v>
+      </c>
+      <c r="D33">
+        <v>0.06464441586477085</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.004703311978053445</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.004030411617371792</v>
+      </c>
+      <c r="C34">
+        <v>-0.05734508297518543</v>
+      </c>
+      <c r="D34">
+        <v>0.05363162905567458</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.0006905829519250043</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.005048597724133418</v>
+      </c>
+      <c r="C35">
+        <v>-0.0403528157995994</v>
+      </c>
+      <c r="D35">
+        <v>0.01886240612343689</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.003699425414277138</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001012433128189108</v>
+      </c>
+      <c r="C36">
+        <v>-0.02500214760396937</v>
+      </c>
+      <c r="D36">
+        <v>0.0211115935307125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.001697844657306335</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009183489694791066</v>
+      </c>
+      <c r="C38">
+        <v>-0.03419669310998655</v>
+      </c>
+      <c r="D38">
+        <v>0.0151194144795322</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01261159774893332</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0007879362989549341</v>
+      </c>
+      <c r="C39">
+        <v>-0.1156564670188976</v>
+      </c>
+      <c r="D39">
+        <v>0.07550066747829799</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.009710236603409585</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002782177614696969</v>
+      </c>
+      <c r="C40">
+        <v>-0.0900746243559031</v>
+      </c>
+      <c r="D40">
+        <v>0.01474116192638722</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0008580762141114244</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007284069448656815</v>
+      </c>
+      <c r="C41">
+        <v>-0.03799978213377292</v>
+      </c>
+      <c r="D41">
+        <v>0.038334564573138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.003160770402631339</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.00394539117164782</v>
+      </c>
+      <c r="C43">
+        <v>-0.05320450684739061</v>
+      </c>
+      <c r="D43">
+        <v>0.02449665790302011</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.005968326479278775</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.002883954988267591</v>
+      </c>
+      <c r="C44">
+        <v>-0.1095020955043675</v>
+      </c>
+      <c r="D44">
+        <v>0.06772258435743661</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.001328808196358506</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.001916832873308652</v>
+      </c>
+      <c r="C46">
+        <v>-0.03328160348703876</v>
+      </c>
+      <c r="D46">
+        <v>0.03529162835078002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0003462455450996926</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002630699024507925</v>
+      </c>
+      <c r="C47">
+        <v>-0.03735209416060079</v>
+      </c>
+      <c r="D47">
+        <v>0.02202012439660282</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.00433159754300828</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006758545786931313</v>
+      </c>
+      <c r="C48">
+        <v>-0.03114123653134415</v>
+      </c>
+      <c r="D48">
+        <v>0.03229191781029113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01136716944748676</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01597054818923444</v>
+      </c>
+      <c r="C49">
+        <v>-0.1852226541410341</v>
+      </c>
+      <c r="D49">
+        <v>0.01599381618025783</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.001231406282413718</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003725837449315338</v>
+      </c>
+      <c r="C50">
+        <v>-0.04360413472760723</v>
+      </c>
+      <c r="D50">
+        <v>0.03716282317984339</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.001170141985331743</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004692839600332937</v>
+      </c>
+      <c r="C51">
+        <v>-0.02553317670745145</v>
+      </c>
+      <c r="D51">
+        <v>0.02069256300746204</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>-0.001045691027370446</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02129797429876637</v>
+      </c>
+      <c r="C53">
+        <v>-0.1699642910408343</v>
+      </c>
+      <c r="D53">
+        <v>0.02593093195892188</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.001256716587639482</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008914449476463001</v>
+      </c>
+      <c r="C54">
+        <v>-0.05479926257100474</v>
+      </c>
+      <c r="D54">
+        <v>0.04365400920119198</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.003860647261229552</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009657462047644887</v>
+      </c>
+      <c r="C55">
+        <v>-0.1104945678688111</v>
+      </c>
+      <c r="D55">
+        <v>0.03765153510977667</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.001897321477812815</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.02038686096659328</v>
+      </c>
+      <c r="C56">
+        <v>-0.1741239414338037</v>
+      </c>
+      <c r="D56">
+        <v>0.01849359086964623</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.007640444850273581</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01949703360419643</v>
+      </c>
+      <c r="C58">
+        <v>-0.1098939084282588</v>
+      </c>
+      <c r="D58">
+        <v>0.06100309257700866</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.007152488632534748</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.01015468286256147</v>
+      </c>
+      <c r="C59">
+        <v>-0.1646289131695311</v>
+      </c>
+      <c r="D59">
+        <v>-0.3290217492885775</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.003643616118502808</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02487280526646427</v>
+      </c>
+      <c r="C60">
+        <v>-0.222635957305436</v>
+      </c>
+      <c r="D60">
+        <v>0.03160133461553482</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01418503336690174</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001671233102368564</v>
+      </c>
+      <c r="C61">
+        <v>-0.09435199427054335</v>
+      </c>
+      <c r="D61">
+        <v>0.05643750614746569</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.162820676906921</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1465685619841526</v>
+      </c>
+      <c r="C62">
+        <v>-0.092829732286643</v>
+      </c>
+      <c r="D62">
+        <v>0.03896340152505865</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.0002574942425632166</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006492008054897728</v>
+      </c>
+      <c r="C63">
+        <v>-0.05492673696155503</v>
+      </c>
+      <c r="D63">
+        <v>0.02698915680020473</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.0006642768418861733</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01496439351002597</v>
+      </c>
+      <c r="C64">
+        <v>-0.1051405358133762</v>
+      </c>
+      <c r="D64">
+        <v>0.06024390415489692</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.002797691754102232</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01799621961667491</v>
+      </c>
+      <c r="C65">
+        <v>-0.1248223677282047</v>
+      </c>
+      <c r="D65">
+        <v>0.02409919772231749</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.007086189442739672</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01323281527010804</v>
+      </c>
+      <c r="C66">
+        <v>-0.1592487212634895</v>
+      </c>
+      <c r="D66">
+        <v>0.1113348176785932</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.003513259108948987</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01562094084676995</v>
+      </c>
+      <c r="C67">
+        <v>-0.06531826505958194</v>
+      </c>
+      <c r="D67">
+        <v>0.02633016759038328</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.005370856998738196</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.001222502148348608</v>
+      </c>
+      <c r="C68">
+        <v>-0.08661895366569021</v>
+      </c>
+      <c r="D68">
+        <v>-0.261027997642501</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.001852123826173709</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006020172095371923</v>
+      </c>
+      <c r="C69">
+        <v>-0.05042688484194739</v>
+      </c>
+      <c r="D69">
+        <v>0.03792116137909311</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>2.102856092766289e-05</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001809195415677607</v>
+      </c>
+      <c r="C70">
+        <v>-0.002769327626408935</v>
+      </c>
+      <c r="D70">
+        <v>0.0009830886951362129</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0009186945323362046</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.006415745521349318</v>
+      </c>
+      <c r="C71">
+        <v>-0.09405632212081376</v>
+      </c>
+      <c r="D71">
+        <v>-0.3045285281357222</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.00328799578572618</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01638896707435943</v>
+      </c>
+      <c r="C72">
+        <v>-0.1529718296470798</v>
+      </c>
+      <c r="D72">
+        <v>0.01519076873281865</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01137928524165206</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03146450328264802</v>
+      </c>
+      <c r="C73">
+        <v>-0.2787893702504156</v>
+      </c>
+      <c r="D73">
+        <v>0.05535807724942865</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.00548191806370618</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.002017017996266318</v>
+      </c>
+      <c r="C74">
+        <v>-0.1045288150521603</v>
+      </c>
+      <c r="D74">
+        <v>0.03372788065745418</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.002942331996605029</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01136175627598999</v>
+      </c>
+      <c r="C75">
+        <v>-0.1255777837588763</v>
+      </c>
+      <c r="D75">
+        <v>0.02242596592039419</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.007959809460118414</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02225634255305092</v>
+      </c>
+      <c r="C76">
+        <v>-0.1493601554890417</v>
+      </c>
+      <c r="D76">
+        <v>0.05760433131923744</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.003312021340918165</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02281611988110166</v>
+      </c>
+      <c r="C77">
+        <v>-0.120156907498246</v>
+      </c>
+      <c r="D77">
+        <v>0.08173655808134542</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.001409496705920339</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01512872323392676</v>
+      </c>
+      <c r="C78">
+        <v>-0.09615271459857372</v>
+      </c>
+      <c r="D78">
+        <v>0.07199287569841649</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02398671841307233</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03840451943057439</v>
+      </c>
+      <c r="C79">
+        <v>-0.1575712706070416</v>
+      </c>
+      <c r="D79">
+        <v>0.03007509500582106</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.005972080192494675</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01014733745537012</v>
+      </c>
+      <c r="C80">
+        <v>-0.03969799483165005</v>
+      </c>
+      <c r="D80">
+        <v>0.02900948445729177</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.0009633452914763171</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.016155053265886</v>
+      </c>
+      <c r="C81">
+        <v>-0.1287042558545173</v>
+      </c>
+      <c r="D81">
+        <v>0.04059792520873431</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.003766068346874767</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.02019944282065382</v>
+      </c>
+      <c r="C82">
+        <v>-0.1419755406757747</v>
+      </c>
+      <c r="D82">
+        <v>0.03488859618452852</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.008496342241042176</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01011252231524671</v>
+      </c>
+      <c r="C83">
+        <v>-0.05506518883070851</v>
+      </c>
+      <c r="D83">
+        <v>0.05423753488972265</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01218200204992157</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.0114889495697408</v>
+      </c>
+      <c r="C84">
+        <v>-0.03647323597942252</v>
+      </c>
+      <c r="D84">
+        <v>-0.00415039243667821</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01378899658737347</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02906755897406076</v>
+      </c>
+      <c r="C85">
+        <v>-0.1258136845813944</v>
+      </c>
+      <c r="D85">
+        <v>0.04290432061575813</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.002160102163505698</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005030021679341188</v>
+      </c>
+      <c r="C86">
+        <v>-0.04960889619341857</v>
+      </c>
+      <c r="D86">
+        <v>0.03036798050871738</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.002867918382811897</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01094507528002846</v>
+      </c>
+      <c r="C87">
+        <v>-0.1288271815477903</v>
+      </c>
+      <c r="D87">
+        <v>0.07125643968177751</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01123198188094223</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002828787154720684</v>
+      </c>
+      <c r="C88">
+        <v>-0.06455676593484194</v>
+      </c>
+      <c r="D88">
+        <v>0.01955417672391793</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01354695048319492</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.00123332964699039</v>
+      </c>
+      <c r="C89">
+        <v>-0.1465466076609356</v>
+      </c>
+      <c r="D89">
+        <v>-0.329909524298768</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.0004417016009075109</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007157646749165048</v>
+      </c>
+      <c r="C90">
+        <v>-0.1204996260999343</v>
+      </c>
+      <c r="D90">
+        <v>-0.3174644116895523</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0002638121513323674</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.0105764696727957</v>
+      </c>
+      <c r="C91">
+        <v>-0.1002220747294389</v>
+      </c>
+      <c r="D91">
+        <v>0.02243208178819083</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.00850581651394742</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.001423255948348504</v>
+      </c>
+      <c r="C92">
+        <v>-0.1361047249183192</v>
+      </c>
+      <c r="D92">
+        <v>-0.323976603581637</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.0002173476284395026</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005348223193409221</v>
+      </c>
+      <c r="C93">
+        <v>-0.1054260714571295</v>
+      </c>
+      <c r="D93">
+        <v>-0.3010683262151596</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.002879613721149648</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02270505678188738</v>
+      </c>
+      <c r="C94">
+        <v>-0.1466173064063537</v>
+      </c>
+      <c r="D94">
+        <v>0.05066778656016521</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.005364109359279688</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01661421615612124</v>
+      </c>
+      <c r="C95">
+        <v>-0.1246881436529464</v>
+      </c>
+      <c r="D95">
+        <v>0.06074374694171486</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.0007714041658085922</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03696776384346402</v>
+      </c>
+      <c r="C97">
+        <v>-0.2135954441976869</v>
+      </c>
+      <c r="D97">
+        <v>-0.009575103736845397</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.002843787474341954</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03763914143303282</v>
+      </c>
+      <c r="C98">
+        <v>-0.2498165657829801</v>
+      </c>
+      <c r="D98">
+        <v>0.0457638185763669</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.984939867979618</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9816961550786477</v>
+      </c>
+      <c r="C99">
+        <v>0.1189927241596856</v>
+      </c>
+      <c r="D99">
+        <v>-0.025528554934759</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001418531143975608</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003087323950421659</v>
+      </c>
+      <c r="C101">
+        <v>-0.04997837596804197</v>
+      </c>
+      <c r="D101">
+        <v>0.009202322393136196</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
